--- a/data/financial_statements/socf/SBNY.xlsx
+++ b/data/financial_statements/socf/SBNY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,2145 +578,2148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-1036203000</v>
+      </c>
+      <c r="C2">
         <v>358467000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>339202000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>338534000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>271992000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>241424000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>214492000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>190533000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>173009000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>138549000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>117214000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>99587000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>147612000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>148118000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>147301000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>143455000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>161932000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>155444000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>154586000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>34472000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>114865000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>124471000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>13957000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>133916000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>113937000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>76110000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>102242000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>104035000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>102988000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>96225000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>90462000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>83390000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>81410000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>76805000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>72482000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>66007000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>64341000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>60168000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>53602000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>50633000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>100671000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>100512000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>99546000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>102966000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>95906000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>84201000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>65905000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>56878000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>48616000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>40674000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>37062000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>35703000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>33275000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30402000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>31629000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>32427000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>32526000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>33354000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>33652000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>32705000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>33132000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>32320000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>29478000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>29817000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>29292000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>29584000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>27650000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>28717000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>29188000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>28158000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>26500000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>26584000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>25683000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>25472000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>25520000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>27815000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>31888000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>33389000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>32545000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>45113000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>18722000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>69459000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>53485000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3136000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-3226000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>51840000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-15126000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>34404000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>65590000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>84622000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>17562000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>17896000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10469000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>21782000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>32006000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>25372000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1517000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>148990000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>85700000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>35594000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>213890000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>34167000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>35849000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>86678000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>35710000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>33871000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>31329000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>10171000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>11132000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>20929000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>34219000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>14760000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6603000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>30893000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>25588000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>31939000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4803000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-3971000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>-62278000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-284247000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-324809000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>77744000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-379740000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-464451000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>210581000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-192765000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-78604000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>-18363000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>159285000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-85642100</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-57288900</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-58178000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>312401000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2417000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-78460000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-72623000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-78411000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-276689000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-29533000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-163010000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>252840000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-22189000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-30303000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-197211000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>5931000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>149263000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>-171005900</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-223160000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>238141000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-96899000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-15992000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>27049000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>12155000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>95409000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6434000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-229833000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>-91156000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>306183000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>171564000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>236402000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-108600000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>224144000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-24728000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>132138000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-63724000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>227719000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>80116000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-26176000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-21959000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>-62662000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>66728000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>220022000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>32215000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>62165000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>81176000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-27887000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>5923000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>213435000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>-207459000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>46152000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>120688000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>688000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-19442000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>51006000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-14153000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>-24449000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>108326000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1548000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-1451000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-9038000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>46222000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-33083000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>-4886000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-22411000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>2675000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>35858000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>-126575000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>59459100</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-585979100</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27852000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-476014000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>240127000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>47935000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>87095000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-70106000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-4960000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-76233000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-40435000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-5702000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-32601000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-241663000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>-54939000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>9220000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-52328000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-17260000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-48044000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5824000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-34916000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-102706000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-13031000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>58998000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>-26434000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-68472000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>-15336000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>84035000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>-116372000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-37093000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>3239000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>25655000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>-2700000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-20721000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>658000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>20786000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>-45766000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>21998000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>621581000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>405212000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-166847000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>425439000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-291144000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>46415000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>698932000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>45363000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>300582000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>280271000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>278147000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>52841000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>73636000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>164121000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>487626000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>206058000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>206267000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>145682000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>93556000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-85540000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>382923000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-145218000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>393847000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>265071000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>221463000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>-75551000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>154021000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>282808000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>24164000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>-101454000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>333415000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>47102000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>117873000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>175128000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>80771000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>208925000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>128804000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-181130000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>45907000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>-13845000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-11135000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-12731000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-9651000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-10611000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-6574000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-5360000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-5763000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-10003000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-5184000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-14092000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-14309000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>-6289000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-7124000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-5215000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>6661000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-6388000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>-7873000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-3887000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-4920000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-6751000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-5340000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-6055000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-5661000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-3891000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-3199000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-3872000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-4567000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>-3584000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-2536000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-1522000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-3414000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-1342000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-3408000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-5405000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-2256000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-1884000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-3568000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-4651000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>-333426000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-541729000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-5010082000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-3786575000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-2234553000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-2495466000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-2354716000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-1488485000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-447397000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-115705000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-12774000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-25788200</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>73638000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>75454000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-39254000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-17697900</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-38985000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-83797000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-194390000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-86092800</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-69151100</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-83260900</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-225365100</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-209689100</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>160563000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>203441000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-171062000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-133851900</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>21961900</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-17795000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-82257000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-26969900</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-308671100</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-68246000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-59838000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-50200000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-406281000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-531011000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-151882000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>-1874995000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-5643016000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-1586274000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-6342514000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-4123666000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-3599754000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-2151756000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-2645617000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-1032505000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-4207618000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1893416000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1174601000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-6935000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-460122000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-1043811000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-1292887000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-980903000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-904649000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-764338000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-1466671000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-805285000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-593823000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-988617000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-1281016000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-1159464000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-1688080000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-1256471000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-1564866000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-1705531000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-1234329000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-1443108000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-1308482000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-1122652000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-1208601000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-698869000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-1416517000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-1043043000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-704754000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-597019000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>-2222260000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-6195883000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-6609087000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-10138740000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-6368830000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-6101798000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-4511832000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-4139866000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-1489905000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-4328507000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1920282000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-1214698000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>60414000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-391792000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-1088280000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-1303924000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-1026276000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-996319000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-962615000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-1557684000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-881187000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-682424000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-1220037000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-1496366000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-1002792000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-1487838000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-1431405000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-1703285000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-1687153000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1254660000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-1526887000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-1338866000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-1432665000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-1280255000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-764112000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-1468973000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-1451208000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-1239333000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-753552000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>-119779000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-875000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-189728000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-25000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-100000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-260000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-75000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>375001100</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1045000100</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-895000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>637101100</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-125000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-999220000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-764000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>590364000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>1005000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-595000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>380000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>15000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>1923000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-248900000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>400000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-33000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>617828000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-639100000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>76204000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>-392163000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>1287000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-303000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>763000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-260000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-25000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-241150000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>-453000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-601000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>326000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>477150000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>990000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-7837000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>-4000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>245000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>731704000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-4000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>654676000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>820000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>707797000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-2000</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>-50008000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-89189000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-75019000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-50230000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-22895000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-41808000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-1000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>133000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-1000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>318655000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>1000</v>
       </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
         <v>36000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>306000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>156000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>38619000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>257216000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>43000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>255000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>7000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>80000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>652000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15">
         <v>708018000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>-44440000</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C16">
         <v>-44440000</v>
       </c>
       <c r="D16">
+        <v>-44440000</v>
+      </c>
+      <c r="E16">
         <v>-44370000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-43131000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-42878000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-41563000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-40598000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-30017000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-30026000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-30028000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-30007000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-30323000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-30689000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-30930000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-30835000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-31011000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-30994000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>-1343532000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-5036062000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>2981943000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>10566450000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10003870000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>11587780000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10620680000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>8976590000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4106821000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7991011000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1848238000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1326077000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1516428000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>917817000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>226153000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>287536000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1097488000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>172025000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1361124000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-238068000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>508874000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>228152000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1051777000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>465890000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1816595000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1470415000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1316347000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>187020000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2155784000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>432999000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1412374000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1299988000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1561569000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1455358000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1257326000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1010163000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>774954000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>471945000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>717203000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>-1507755000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-5955257000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3479549000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>10498310000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>10515660000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>11287040000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>11212880000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>10029600000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>3031793000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>7065983000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2405324000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1081565000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>411500000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>72657000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>762787000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>1219717000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>471494000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>552025000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1376124000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1684932000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>259974000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>628152000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>1018777000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1083717000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1177628000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1546618000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1242839000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1474021000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>1852784000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>1196035000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>1152680000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1275144000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>1359038000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>1259574000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>656369000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1336418000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1252111000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1462025000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>710018000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>-3108440000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-11745926000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-3296384000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>785010000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3855690000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>5231662000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>7399978000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>5935095000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1842469000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3017747000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>763189000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-80092000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>545550000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-155014000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>162133000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>121851000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-348515000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-298612000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>507065000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>41708000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-238290000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-199490000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>192587000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-147578000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>396299000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-16771000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-34545000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>53544000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>189795000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-160079000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-40792000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-16620000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>44246000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>154447000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-26972000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>76370000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-70293000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>41562000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2373000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>29620670000</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
         <v>0</v>
       </c>
@@ -2610,11 +2727,11 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>12348330000</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
@@ -2622,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>789832000</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -2634,11 +2751,11 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>317255000</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0</v>
       </c>
@@ -2646,11 +2763,11 @@
         <v>0</v>
       </c>
       <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>335466000</v>
       </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -2658,11 +2775,11 @@
         <v>0</v>
       </c>
       <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <v>538951000</v>
       </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
       <c r="Z20">
         <v>0</v>
       </c>
@@ -2670,11 +2787,11 @@
         <v>0</v>
       </c>
       <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
         <v>341546000</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
       <c r="AD20">
         <v>0</v>
       </c>
@@ -2682,11 +2799,11 @@
         <v>0</v>
       </c>
       <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
         <v>299078000</v>
       </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
       <c r="AH20">
         <v>0</v>
       </c>
@@ -2694,11 +2811,11 @@
         <v>0</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
         <v>143977000</v>
       </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
       <c r="AL20">
         <v>0</v>
       </c>
@@ -2706,311 +2823,314 @@
         <v>0</v>
       </c>
       <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
         <v>93965000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>-3108440000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-11745930000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>26324290000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>785010000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>3855690000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>5231660000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>19748310000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5935093000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1842469000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3017747000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>1553021000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-80092000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>545550000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-155014000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>479388000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>121851000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-348515000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-298612000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>842531000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>41708000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-238290000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-199490000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>731538000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-147578000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>396299000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-16771000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>307001000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>53544000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>189795000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-160079000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>258286000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-16620000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>44246000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>154447000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>117005000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>76370000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-70293000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>41562000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>96338000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>15123000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>15018000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>13589000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>12232000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>12192000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>10996000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>14169000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>13489000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>13566000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>13172000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>14767000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12579000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>14173000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14310000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>14296000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>13522000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>12937000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>13559000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>12548000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>10866000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>12443000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>12356000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>10710000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>10924000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>10814000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10696000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>9222000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>9089000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>9125000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>8941000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>7519000</v>
-      </c>
-      <c r="AG22">
-        <v>7575000</v>
       </c>
       <c r="AH22">
         <v>7575000</v>
       </c>
       <c r="AI22">
+        <v>7575000</v>
+      </c>
+      <c r="AJ22">
         <v>7493000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>5047000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>4975000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>4981000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>4902000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>707000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>-35315000</v>
+        <v>105875000</v>
       </c>
       <c r="C23">
         <v>-35315000</v>
       </c>
       <c r="D23">
+        <v>-35315000</v>
+      </c>
+      <c r="E23">
         <v>-35245000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-34006000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-33753000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-32438000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-30086000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-30017000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-30026000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-30028000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-30007000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-30323000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-30689000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-30930000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>-30835000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-31011000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-30994000</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
       <c r="T23">
         <v>0</v>
       </c>
@@ -3074,379 +3194,382 @@
       <c r="AN23">
         <v>0</v>
       </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.8576</v>
+      </c>
+      <c r="C24">
         <v>-0.9848</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-1.0974</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-1.2785</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-1.2704</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-1.4246</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-1.3576</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1.12</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.921</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.2566</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.4614</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>1.7101</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.9619</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.6021</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.7927999999999999</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.7009</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.878</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.6903</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.641</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.4955</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.5524</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.3588</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.2996</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.2586</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.2224</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.236</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.3499</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.2784</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.3057</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1724</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.2134</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1474</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.1676</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1989</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.2257</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.2816</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.4257</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.4051</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.3468</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1348</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>117329900</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-53224000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-674386000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-3004000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-631610000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-249052000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>390654000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-169394000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>79009000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>56793000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>56876000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-148036100</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-125652900</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-24051000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>290760000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-20307000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-7075000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-43775000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>-123558000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-318809900</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>189725900</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-405385000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>196286000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>85468000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>29383000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-243087000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>-11535000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>119774000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-111419900</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-231206000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>202596000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-95111000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>625000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>70571000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-41649000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>91180900</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>4809100</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>-272924000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>-33300000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>-333426000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-541729000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-5010082000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-3786575000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-2234553000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-2495466000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-2354716000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-1488485000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>-447397000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>-115705000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-12774000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-25788200</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>73638000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>75454000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-39254000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-17697900</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-38985000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-83797000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-194390000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-86092800</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-69151100</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-83260900</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-225365100</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-209689100</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>160563000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>203441000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-171062000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-133851900</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>21961900</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-17795000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-82257000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-26969900</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>-308671100</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-68246000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>-59838000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-50200000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-406281000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-531011000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-151882000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>-9125000</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C27">
         <v>-9125000</v>
@@ -3464,208 +3587,211 @@
         <v>-9125000</v>
       </c>
       <c r="H27">
+        <v>-9125000</v>
+      </c>
+      <c r="I27">
         <v>-10512000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>-4000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>245000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>731704000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-4000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>654676000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>820000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>707797000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>708020000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-2000</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>-50008000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-89189000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-75019000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-50230000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-22895000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-41808000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-1000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>133000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-1000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>318655000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1000</v>
       </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
       <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
         <v>36000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>306000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>156000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>38619000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>257216000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>43000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>255000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>7000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>80000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>652000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>-4000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>245000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>731704000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-4000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>654676000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>820000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>707797000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>708020000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>-2000</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>-50008000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-89189000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>-75019000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>-50230000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-22895000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>-41808000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>-1000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>133000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>-1000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>318655000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1000</v>
       </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
       <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
         <v>36000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>306000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>156000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>38619000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>257216000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>43000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>255000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>7000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>80000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>652000</v>
       </c>
     </row>
